--- a/biology/Botanique/Lagerstroemia_calyculata/Lagerstroemia_calyculata.xlsx
+++ b/biology/Botanique/Lagerstroemia_calyculata/Lagerstroemia_calyculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagerstroemia calyculata (Vietnamien : Bằng Lăng Ổi, Bằng Lăng Cườm; thai: ตะแบก tabaek; cambodgien : Srolao "ដើមស្រឡៅ") est une espèce d’arbres de la famille des Lythraceae qui se trouve en Asie du Sud-Est et en Océanie[réf. souhaitée].
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagerstroemia calyculata est un arbre de taille moyenne de 10 à 20 m de haut, atteignant parfois 35 m.
 			Sralao parasité par un figuier étrangleur Ficus altissima qui l'enserre totalement.
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lagerstroemia calyculata est présente au Cambodge, au Laos, en Malaisie, en Birmanie, en Thaïlande et au Vietnam[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lagerstroemia calyculata est présente au Cambodge, au Laos, en Malaisie, en Birmanie, en Thaïlande et au Vietnam.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lagerstroemia calyculata a pour synonymes selon Plants of the World online (POWO)                (22 février 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lagerstroemia calyculata a pour synonymes selon Plants of the World online (POWO)                (22 février 2021) :
 Lagerstroemia angustifolia Pierre ex Gagnep.
 Murtughas calyculata (Kurz) Kuntze</t>
         </is>
